--- a/杭州网络公司黑名单目录.xlsx
+++ b/杭州网络公司黑名单目录.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lance/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lance/Desktop/HangzhouBlacklistCompany/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="960" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浙江雄猫软件开发有限公司</t>
-  </si>
-  <si>
     <t>公司简介</t>
     <rPh sb="0" eb="1">
       <t>gon si</t>
@@ -73,19 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是一家P2P公司；</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yi jia</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gon si</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拖欠员工工资，造成员工集体拉横幅讨要工资，有的被老板手下打，造成轻伤，性质恶劣；涉及劳动局，税务局，派出所，市长热线举报；</t>
     <rPh sb="0" eb="1">
       <t>tuo qian</t>
@@ -164,6 +148,38 @@
     </rPh>
     <rPh sb="58" eb="59">
       <t>ju b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江雄猫软件开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江雄猫软件开发有限公司位于杭州市下城区绍兴路三立时代广场；主要是做P2P软件开发的；员工10-50人；</t>
+    <rPh sb="30" eb="31">
+      <t>zhu yao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ruan j</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>kai f</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>de</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yuan gon</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ren</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +201,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -218,9 +242,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,7 +527,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -522,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -533,13 +557,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/杭州网络公司黑名单目录.xlsx
+++ b/杭州网络公司黑名单目录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4340" yWindow="2060" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>登记时间</t>
     <rPh sb="0" eb="1">
@@ -180,6 +180,52 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.7.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州博世数据网络有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该公司位于杭州市滨江区阡陌路482号智慧e谷；</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gon si</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶意开除员工 拒绝赔偿；有多项历史不良法院判决，地址http://www.qixin.com/company/cc2b20ed-b5db-4416-bb2a-07006273a69b?token=593c8d038d080ace8babac339220578d&amp;from=bkdt#/risk/lawsuits</t>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>duo xiang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>li shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bu liang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fa yuan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>pan j</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>di z</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,11 +279,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,6 +289,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,47 +576,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="73" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D59" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/杭州网络公司黑名单目录.xlsx
+++ b/杭州网络公司黑名单目录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="2060" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="5900" yWindow="3080" windowWidth="22840" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>登记时间</t>
     <rPh sb="0" eb="1">
@@ -205,15 +205,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恶意开除员工 拒绝赔偿；有多项历史不良法院判决，地址http://www.qixin.com/company/cc2b20ed-b5db-4416-bb2a-07006273a69b?token=593c8d038d080ace8babac339220578d&amp;from=bkdt#/risk/lawsuits</t>
+    <t>恶意开除员工 拒绝赔偿；并且有多项不良法院判决历史，地址http://www.qixin.com/company/cc2b20ed-b5db-4416-bb2a-07006273a69b?token=593c8d038d080ace8babac339220578d&amp;from=bkdt#/risk/lawsuits；  这位举报的同学也是，既然这家公司我都能查到黑历史，你还进去干嘛呢，不欺负你这只傻白甜，还欺负谁；</t>
     <rPh sb="12" eb="13">
+      <t>bing q</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>you</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="15" eb="16">
       <t>duo xiang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>li shi</t>
     </rPh>
     <rPh sb="17" eb="18">
       <t>bu liang</t>
@@ -224,17 +224,193 @@
     <rPh sb="21" eb="22">
       <t>pan j</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="26" eb="27">
       <t>di z</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <rPh sb="160" eb="161">
+      <t>zhe wei</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ju b</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>de</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ton x</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>ye shi</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ji r</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>zhe jia</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>gon si</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>du shi</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>cha dao</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>hei li s</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>hai</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>jin qu</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>gan ma</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ne</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>bu qi fu</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>zhe zhi</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>sha bai</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>hai qi fu shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖欠工资，不签合同，不缴纳社保，
+还强迫加班。</t>
+  </si>
+  <si>
+    <t>是一家做美容行业招聘的公司；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江源明创迪电子商务股份
+有限公司</t>
+  </si>
+  <si>
+    <t>一家滨江的电子商务公司；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常儿戏，研发团队说组建就组建，
+说解散就解散。（我觉得这家公司只是一个不对员工负责而已，也没有做过份的事）</t>
+    <rPh sb="25" eb="26">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jue d</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhe jia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>gon si</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhi shi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>bu dui</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yuan gon</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>fu ze</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>er yi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>mei y</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>de</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面评价</t>
+    <rPh sb="0" eb="1">
+      <t>fu mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5星</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4星</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3星</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州蓝米美业科技有限公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\.m\.d"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,16 +434,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -275,11 +463,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +501,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -588,9 +811,10 @@
     <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:256" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +827,11 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="73" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:256" ht="73" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -617,8 +844,11 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="171" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -631,44 +861,326 @@
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>42934</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" s="12" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>42934</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="11"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11"/>
+      <c r="BT5" s="11"/>
+      <c r="BU5" s="11"/>
+      <c r="BV5" s="11"/>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="11"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="11"/>
+      <c r="CL5" s="11"/>
+      <c r="CM5" s="11"/>
+      <c r="CN5" s="11"/>
+      <c r="CO5" s="11"/>
+      <c r="CP5" s="11"/>
+      <c r="CQ5" s="11"/>
+      <c r="CR5" s="11"/>
+      <c r="CS5" s="11"/>
+      <c r="CT5" s="11"/>
+      <c r="CU5" s="11"/>
+      <c r="CV5" s="11"/>
+      <c r="CW5" s="11"/>
+      <c r="CX5" s="11"/>
+      <c r="CY5" s="11"/>
+      <c r="CZ5" s="11"/>
+      <c r="DA5" s="11"/>
+      <c r="DB5" s="11"/>
+      <c r="DC5" s="11"/>
+      <c r="DD5" s="11"/>
+      <c r="DE5" s="11"/>
+      <c r="DF5" s="11"/>
+      <c r="DG5" s="11"/>
+      <c r="DH5" s="11"/>
+      <c r="DI5" s="11"/>
+      <c r="DJ5" s="11"/>
+      <c r="DK5" s="11"/>
+      <c r="DL5" s="11"/>
+      <c r="DM5" s="11"/>
+      <c r="DN5" s="11"/>
+      <c r="DO5" s="11"/>
+      <c r="DP5" s="11"/>
+      <c r="DQ5" s="11"/>
+      <c r="DR5" s="11"/>
+      <c r="DS5" s="11"/>
+      <c r="DT5" s="11"/>
+      <c r="DU5" s="11"/>
+      <c r="DV5" s="11"/>
+      <c r="DW5" s="11"/>
+      <c r="DX5" s="11"/>
+      <c r="DY5" s="11"/>
+      <c r="DZ5" s="11"/>
+      <c r="EA5" s="11"/>
+      <c r="EB5" s="11"/>
+      <c r="EC5" s="11"/>
+      <c r="ED5" s="11"/>
+      <c r="EE5" s="11"/>
+      <c r="EF5" s="11"/>
+      <c r="EG5" s="11"/>
+      <c r="EH5" s="11"/>
+      <c r="EI5" s="11"/>
+      <c r="EJ5" s="11"/>
+      <c r="EK5" s="11"/>
+      <c r="EL5" s="11"/>
+      <c r="EM5" s="11"/>
+      <c r="EN5" s="11"/>
+      <c r="EO5" s="11"/>
+      <c r="EP5" s="11"/>
+      <c r="EQ5" s="11"/>
+      <c r="ER5" s="11"/>
+      <c r="ES5" s="11"/>
+      <c r="ET5" s="11"/>
+      <c r="EU5" s="11"/>
+      <c r="EV5" s="11"/>
+      <c r="EW5" s="11"/>
+      <c r="EX5" s="11"/>
+      <c r="EY5" s="11"/>
+      <c r="EZ5" s="11"/>
+      <c r="FA5" s="11"/>
+      <c r="FB5" s="11"/>
+      <c r="FC5" s="11"/>
+      <c r="FD5" s="11"/>
+      <c r="FE5" s="11"/>
+      <c r="FF5" s="11"/>
+      <c r="FG5" s="11"/>
+      <c r="FH5" s="11"/>
+      <c r="FI5" s="11"/>
+      <c r="FJ5" s="11"/>
+      <c r="FK5" s="11"/>
+      <c r="FL5" s="11"/>
+      <c r="FM5" s="11"/>
+      <c r="FN5" s="11"/>
+      <c r="FO5" s="11"/>
+      <c r="FP5" s="11"/>
+      <c r="FQ5" s="11"/>
+      <c r="FR5" s="11"/>
+      <c r="FS5" s="11"/>
+      <c r="FT5" s="11"/>
+      <c r="FU5" s="11"/>
+      <c r="FV5" s="11"/>
+      <c r="FW5" s="11"/>
+      <c r="FX5" s="11"/>
+      <c r="FY5" s="11"/>
+      <c r="FZ5" s="11"/>
+      <c r="GA5" s="11"/>
+      <c r="GB5" s="11"/>
+      <c r="GC5" s="11"/>
+      <c r="GD5" s="11"/>
+      <c r="GE5" s="11"/>
+      <c r="GF5" s="11"/>
+      <c r="GG5" s="11"/>
+      <c r="GH5" s="11"/>
+      <c r="GI5" s="11"/>
+      <c r="GJ5" s="11"/>
+      <c r="GK5" s="11"/>
+      <c r="GL5" s="11"/>
+      <c r="GM5" s="11"/>
+      <c r="GN5" s="11"/>
+      <c r="GO5" s="11"/>
+      <c r="GP5" s="11"/>
+      <c r="GQ5" s="11"/>
+      <c r="GR5" s="11"/>
+      <c r="GS5" s="11"/>
+      <c r="GT5" s="11"/>
+      <c r="GU5" s="11"/>
+      <c r="GV5" s="11"/>
+      <c r="GW5" s="11"/>
+      <c r="GX5" s="11"/>
+      <c r="GY5" s="11"/>
+      <c r="GZ5" s="11"/>
+      <c r="HA5" s="11"/>
+      <c r="HB5" s="11"/>
+      <c r="HC5" s="11"/>
+      <c r="HD5" s="11"/>
+      <c r="HE5" s="11"/>
+      <c r="HF5" s="11"/>
+      <c r="HG5" s="11"/>
+      <c r="HH5" s="11"/>
+      <c r="HI5" s="11"/>
+      <c r="HJ5" s="11"/>
+      <c r="HK5" s="11"/>
+      <c r="HL5" s="11"/>
+      <c r="HM5" s="11"/>
+      <c r="HN5" s="11"/>
+      <c r="HO5" s="11"/>
+      <c r="HP5" s="11"/>
+      <c r="HQ5" s="11"/>
+      <c r="HR5" s="11"/>
+      <c r="HS5" s="11"/>
+      <c r="HT5" s="11"/>
+      <c r="HU5" s="11"/>
+      <c r="HV5" s="11"/>
+      <c r="HW5" s="11"/>
+      <c r="HX5" s="11"/>
+      <c r="HY5" s="11"/>
+      <c r="HZ5" s="11"/>
+      <c r="IA5" s="11"/>
+      <c r="IB5" s="11"/>
+      <c r="IC5" s="11"/>
+      <c r="ID5" s="11"/>
+      <c r="IE5" s="11"/>
+      <c r="IF5" s="11"/>
+      <c r="IG5" s="11"/>
+      <c r="IH5" s="11"/>
+      <c r="II5" s="11"/>
+      <c r="IJ5" s="11"/>
+      <c r="IK5" s="11"/>
+      <c r="IL5" s="11"/>
+      <c r="IM5" s="11"/>
+      <c r="IN5" s="11"/>
+      <c r="IO5" s="11"/>
+      <c r="IP5" s="11"/>
+      <c r="IQ5" s="11"/>
+      <c r="IR5" s="11"/>
+      <c r="IS5" s="11"/>
+      <c r="IT5" s="11"/>
+      <c r="IU5" s="11"/>
+      <c r="IV5" s="11"/>
+    </row>
+    <row r="6" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">

--- a/杭州网络公司黑名单目录.xlsx
+++ b/杭州网络公司黑名单目录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="3080" windowWidth="22840" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="2220" yWindow="460" windowWidth="22840" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>登记时间</t>
     <rPh sb="0" eb="1">
@@ -392,15 +392,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3星</t>
+    <t>杭州蓝米美业科技有限公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2星</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杭州蓝米美业科技有限公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>杭州砺玛物联网科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常拖欠工资；而且对离职的人以“发不起工资了”为借口而不发工资；员工福利也抠扣，陪产假只给了3天；</t>
+    <rPh sb="0" eb="1">
+      <t>jing c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tuo q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong zi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>er q</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>li z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gong zi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>le</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>er</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bu fa</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gong zi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yuan gon</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fu li</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>kou kou</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>kou</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>pei chan jia</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>gei le</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -802,7 +891,7 @@
   <dimension ref="A1:IV59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -870,7 +959,7 @@
         <v>42934</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
@@ -896,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1150,8 +1239,19 @@
       <c r="IU5" s="11"/>
       <c r="IV5" s="11"/>
     </row>
-    <row r="6" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:256" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>42935</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.15">
       <c r="D7" s="5"/>

--- a/杭州网络公司黑名单目录.xlsx
+++ b/杭州网络公司黑名单目录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="22840" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="24500" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>登记时间</t>
     <rPh sb="0" eb="1">
@@ -488,6 +488,133 @@
     </rPh>
     <rPh sb="47" eb="48">
       <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业法人</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于杭州市滨江区建业路511号华业大厦；</t>
+    <rPh sb="0" eb="1">
+      <t>wei yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州学潮网络科技有限公司     浙江佳校通教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对离职员工拖欠工资达半年到一年；脸皮厚到没话说；2.李兵在法院判决中有不履行黑历史，已经进入杭州法院的失信名单；</t>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan gon</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tuo qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gon zi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ban n</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi nian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lian p</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hou dao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>mei hua shuo</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>li bin</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bin</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fa y</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>pan j</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhon</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>you</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>bu lü x</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>hei li shi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yi j</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jin ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>hang zhou</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fa y</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>de</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>shi xin</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ming d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4星</t>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -888,106 +1015,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV59"/>
+  <dimension ref="A1:IW59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:257" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="73" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:257" ht="73" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="171" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:257" ht="171" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:257" ht="92" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>42934</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:256" s="12" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:257" s="12" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>42934</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -1238,179 +1369,197 @@
       <c r="IT5" s="11"/>
       <c r="IU5" s="11"/>
       <c r="IV5" s="11"/>
-    </row>
-    <row r="6" spans="1:256" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="IW5" s="11"/>
+    </row>
+    <row r="6" spans="1:257" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>42935</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:256" x14ac:dyDescent="0.15">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D59" s="5"/>
+    <row r="7" spans="1:257" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E59" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/杭州网络公司黑名单目录.xlsx
+++ b/杭州网络公司黑名单目录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="24500" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="480" windowWidth="24500" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>登记时间</t>
     <rPh sb="0" eb="1">
@@ -615,6 +615,123 @@
     <t>4星</t>
     <rPh sb="1" eb="2">
       <t>xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.不交五险一金；2.核算工资不按正常应上班日核算；3.进去刚做新项目三个月就解散项目组，领导无眼光；</t>
+    <rPh sb="2" eb="3">
+      <t>bu jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu xian yi j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he suan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong zi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu an</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zheng c</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shang ban ri</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>he suan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>jin qu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>gang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>san ge yue</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>jie san</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>xiang mu zu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ling d</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>yan guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州言川科技有限公司       （带“言川”的都是它马甲公司）</t>
+    <rPh sb="18" eb="19">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>du shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ma jia</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gon si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立于2013年4月，位于浙江省杭州钱江经济开发区欣北钱江国际广场；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈训欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
+    <rPh sb="0" eb="1">
+      <t>san xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1405,8 +1522,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:257" x14ac:dyDescent="0.15">
-      <c r="E8" s="5"/>
+    <row r="8" spans="1:257" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:257" x14ac:dyDescent="0.15">
       <c r="E9" s="5"/>

--- a/杭州网络公司黑名单目录.xlsx
+++ b/杭州网络公司黑名单目录.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lance/Desktop/HangzhouBlacklistCompany/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="480" windowWidth="24500" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>登记时间</t>
     <rPh sb="0" eb="1">
@@ -368,16 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负面评价</t>
-    <rPh sb="0" eb="1">
-      <t>fu mian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5星</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
@@ -733,6 +718,84 @@
     <rPh sb="0" eb="1">
       <t>san xing</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州微蚁科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何玉元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立于2016年11月，位于西湖区文一路西溪-绿城西溪国际；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.27</t>
+  </si>
+  <si>
+    <t>宁波族谱网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.面试只谈职业规划，没有技术面试；面试不尊人，面试官全程自己玩手机；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对离职的人以“发不起工资了”为借口只发3500元底薪；辞退员工不赔偿；2.老板安徽人人品差，非常小气，而且跟内部辞职的员工基本吵架；3.劳动合同只写3500元，最低社保公积金；4.没有年终奖，只发一张彩票；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有遇到福利差，工作强度高，领导老板差，管理混乱，不尊重技术人员，克扣工资，不交五险一金等这些跟我讲，可以挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">杭州甲虎科技有限公司(小强停车) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘永强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江区纳爱斯国际科创园；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江区杭州湾信息港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛余明</t>
+  </si>
+  <si>
+    <t>2星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑心指数/负面评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.老板非常小气，福利极差，员工3年不涨工资，过年只发一张彩票，没有团建聚餐；2.不尊重技术人员劳动，让技术同时兼顾客服的工作，工资低也觉得你拿的多；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.m\.d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -771,6 +834,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF414A60"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -815,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,9 +925,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -912,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -947,7 +1023,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1134,28 +1210,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:257" ht="40" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -1164,10 +1242,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:257" ht="73" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:257" ht="73" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1181,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:257" ht="171" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:257" ht="171" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,17 +1279,17 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:257" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:257" ht="92" customHeight="1">
       <c r="A4" s="8">
         <v>42934</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1216,10 +1297,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:257" s="12" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:257" s="12" customFormat="1" ht="102" customHeight="1">
       <c r="A5" s="8">
         <v>42934</v>
       </c>
@@ -1234,9 +1315,9 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1488,215 +1569,274 @@
       <c r="IV5" s="11"/>
       <c r="IW5" s="11"/>
     </row>
-    <row r="6" spans="1:257" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:257" ht="90" customHeight="1">
       <c r="A6" s="8">
         <v>42935</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:257" ht="80" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:257" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:257" ht="141" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:257" ht="141" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:257" ht="96" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:257" x14ac:dyDescent="0.15">
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:257" x14ac:dyDescent="0.15">
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:257" x14ac:dyDescent="0.15">
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:257" ht="47" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:257" ht="78" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:257" ht="37" customHeight="1">
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:257" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:257">
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:257" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:257">
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:257" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:257">
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:257" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:257">
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:5">
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:5">
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:5">
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:5">
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:5">
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:5">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:5">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:5">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:5">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:5">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:5">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:5">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:5">
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:5">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:5">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:5">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:5">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:5">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:5">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:5">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:5">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:5">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:5">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:5">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:5">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:5">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:5">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:5">
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:5">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:5">
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:5">
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="5:5">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:5">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:5">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:5">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:5">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:5">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:5">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:5">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:5">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:5">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:5">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:5">
       <c r="E59" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:G1048576"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>